--- a/RoadMap/NewMap_Excel/Map5_2.xlsx
+++ b/RoadMap/NewMap_Excel/Map5_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuzu2\Desktop\TeamCreate\デザインしたやつ\マップ\Excelデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7C852A-CFAF-42F7-83ED-D278BAB4FEC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF5F32C-1BFC-4035-9EC3-44BC84EC17FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" xr2:uid="{28C75793-38F3-4E5C-9AF9-177F310CD9E8}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="33">
   <si>
     <t>Line_1</t>
     <phoneticPr fontId="2"/>
@@ -802,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D7DA22-7C5D-4830-9B0D-0A1F72FB06A2}">
   <dimension ref="A1:AH602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A379" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K382" sqref="K382"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X209" sqref="X209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5850,10 +5850,9 @@
       <c r="H219" s="4"/>
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
-      <c r="K219" s="4" t="s">
+      <c r="L219" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L219" s="8"/>
       <c r="M219" s="8"/>
       <c r="N219" s="8"/>
       <c r="O219" s="11"/>
@@ -5980,8 +5979,7 @@
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
       <c r="H225" s="4"/>
-      <c r="I225" s="4"/>
-      <c r="J225" s="4" t="s">
+      <c r="I225" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K225" s="4"/>
@@ -6001,10 +5999,7 @@
       </c>
       <c r="C226" s="10"/>
       <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
-      <c r="F226" s="8"/>
-      <c r="G226" s="8"/>
-      <c r="H226" s="4" t="s">
+      <c r="E226" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I226" s="4"/>
@@ -6072,11 +6067,10 @@
       <c r="H229" s="4"/>
       <c r="I229" s="4"/>
       <c r="J229" s="4"/>
-      <c r="K229" s="4"/>
-      <c r="L229" s="4" t="s">
+      <c r="K229" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="M229" s="4"/>
+      <c r="L229" s="4"/>
       <c r="N229" s="4"/>
       <c r="O229" s="5"/>
       <c r="P229" s="6"/>
@@ -6097,7 +6091,6 @@
       <c r="J230" s="4"/>
       <c r="K230" s="4"/>
       <c r="L230" s="4"/>
-      <c r="M230" s="4"/>
       <c r="N230" s="4"/>
       <c r="O230" s="5"/>
       <c r="P230" s="6"/>
@@ -6118,7 +6111,6 @@
       <c r="J231" s="4"/>
       <c r="K231" s="4"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="4"/>
       <c r="N231" s="4"/>
       <c r="O231" s="5"/>
       <c r="P231" s="6"/>
@@ -6139,7 +6131,6 @@
       <c r="J232" s="4"/>
       <c r="K232" s="4"/>
       <c r="L232" s="4"/>
-      <c r="M232" s="4"/>
       <c r="N232" s="4"/>
       <c r="O232" s="5"/>
       <c r="P232" s="6"/>
@@ -6159,8 +6150,7 @@
       <c r="I233" s="4"/>
       <c r="J233" s="4"/>
       <c r="K233" s="4"/>
-      <c r="L233" s="4"/>
-      <c r="M233" s="4" t="s">
+      <c r="L233" s="4" t="s">
         <v>20</v>
       </c>
       <c r="N233" s="4"/>
@@ -6519,16 +6509,13 @@
         <v>20</v>
       </c>
       <c r="F250" s="4"/>
-      <c r="G250" s="4" t="s">
+      <c r="I250" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H250" s="8"/>
-      <c r="I250" s="8"/>
       <c r="J250" s="8"/>
       <c r="K250" s="8"/>
       <c r="L250" s="8"/>
-      <c r="M250" s="8"/>
-      <c r="N250" s="4" t="s">
+      <c r="M250" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O250" s="4"/>
@@ -6797,11 +6784,11 @@
       </c>
       <c r="B263" s="6"/>
       <c r="C263" s="3"/>
-      <c r="D263" s="4"/>
-      <c r="E263" s="20" t="s">
+      <c r="D263" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F263" s="20" t="s">
+      <c r="E263" s="20"/>
+      <c r="F263" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G263" s="4"/>
@@ -6809,13 +6796,13 @@
       <c r="I263" s="4"/>
       <c r="J263" s="4"/>
       <c r="K263" s="4"/>
-      <c r="L263" s="20" t="s">
+      <c r="L263" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M263" s="20" t="s">
+      <c r="M263" s="20"/>
+      <c r="N263" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N263" s="4"/>
       <c r="O263" s="4"/>
       <c r="P263" s="6"/>
       <c r="Q263" s="4"/>
@@ -6958,17 +6945,20 @@
       <c r="C270" s="3"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
-      <c r="F270" s="4"/>
-      <c r="G270" s="4"/>
+      <c r="F270" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G270" s="20"/>
       <c r="H270" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J270" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I270" s="20"/>
-      <c r="J270" s="4" t="s">
+      <c r="K270" s="20"/>
+      <c r="L270" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K270" s="4"/>
-      <c r="L270" s="4"/>
       <c r="M270" s="4"/>
       <c r="N270" s="4"/>
       <c r="O270" s="4"/>
@@ -7074,9 +7064,6 @@
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
       <c r="H275" s="4"/>
-      <c r="I275" s="7" t="s">
-        <v>20</v>
-      </c>
       <c r="J275" s="4"/>
       <c r="K275" s="4"/>
       <c r="L275" s="4"/>
@@ -7097,6 +7084,9 @@
       <c r="F276" s="7"/>
       <c r="G276" s="7"/>
       <c r="H276" s="7"/>
+      <c r="I276" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="J276" s="7"/>
       <c r="K276" s="4"/>
       <c r="L276" s="4"/>
@@ -7115,14 +7105,13 @@
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
       <c r="F277" s="7"/>
-      <c r="G277" s="4" t="s">
+      <c r="H277" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H277" s="20"/>
-      <c r="I277" s="4" t="s">
+      <c r="I277" s="20"/>
+      <c r="J277" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="J277" s="7"/>
       <c r="K277" s="4"/>
       <c r="L277" s="4"/>
       <c r="M277" s="4"/>
@@ -9760,17 +9749,11 @@
       <c r="C393" s="3"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
-      <c r="F393" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="G393" s="4"/>
       <c r="H393" s="4"/>
       <c r="I393" s="16"/>
       <c r="J393" s="4"/>
       <c r="K393" s="4"/>
-      <c r="L393" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="M393" s="4"/>
       <c r="N393" s="4"/>
       <c r="O393" s="4"/>
@@ -9785,13 +9768,17 @@
       <c r="C394" s="3"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
-      <c r="F394" s="4"/>
+      <c r="F394" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="G394" s="4"/>
       <c r="H394" s="4"/>
       <c r="I394" s="16"/>
       <c r="J394" s="4"/>
       <c r="K394" s="4"/>
-      <c r="L394" s="4"/>
+      <c r="L394" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="M394" s="4"/>
       <c r="N394" s="4"/>
       <c r="O394" s="4"/>
@@ -10006,9 +9993,6 @@
       <c r="B404" s="6"/>
       <c r="C404" s="3"/>
       <c r="D404" s="4"/>
-      <c r="E404" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
       <c r="H404" s="4"/>
@@ -10016,9 +10000,6 @@
       <c r="J404" s="4"/>
       <c r="K404" s="4"/>
       <c r="L404" s="4"/>
-      <c r="M404" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="N404" s="4"/>
       <c r="O404" s="5"/>
       <c r="P404" s="6"/>
@@ -10031,7 +10012,9 @@
       <c r="B405" s="6"/>
       <c r="C405" s="3"/>
       <c r="D405" s="4"/>
-      <c r="E405" s="4"/>
+      <c r="E405" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
       <c r="H405" s="4"/>
@@ -10039,7 +10022,9 @@
       <c r="J405" s="4"/>
       <c r="K405" s="4"/>
       <c r="L405" s="4"/>
-      <c r="M405" s="4"/>
+      <c r="M405" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="N405" s="4"/>
       <c r="O405" s="5"/>
       <c r="P405" s="6"/>
